--- a/asset/Hierachical Table2.xlsx
+++ b/asset/Hierachical Table2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\张驰\学习\研究生科研\Table Transformation\Table-Transformation-demo\asset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\Tabular QA\工作内容\Table Transformation\Table-Transformation-demo\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426A7229-1DB6-41E9-8582-77D8261A2ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDB2FEC-C303-46D1-825D-279F6159280F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新建 Microsoft Excel 工作表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="12">
   <si>
     <t>KDA</t>
   </si>
@@ -241,7 +241,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,6 +448,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,7 +869,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -891,34 +897,37 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1268,7 +1277,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1276,49 +1285,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="1" max="2" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="14"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="9">
+      <c r="C1" s="16"/>
+      <c r="D1" s="10">
         <v>2018</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10">
         <v>2019</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10">
         <v>2020</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10">
+        <v>2021</v>
+      </c>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10">
+        <v>2022</v>
+      </c>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10">
+        <v>2023</v>
+      </c>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="14"/>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1355,12 +1382,48 @@
       <c r="O2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="P2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1402,24 +1465,60 @@
       <c r="O3" s="4">
         <v>4.8</v>
       </c>
+      <c r="P3" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="R3" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="S3" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="T3" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="U3" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="V3" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="W3" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="X3" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>4.8</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="18"/>
+    <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="5">
+        <v>11.1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>11.2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>11.3</v>
+      </c>
+      <c r="G4" s="5">
         <v>11.4</v>
-      </c>
-      <c r="E4" s="5">
-        <v>12.7</v>
-      </c>
-      <c r="F4" s="5">
-        <v>11.3</v>
-      </c>
-      <c r="G4" s="5">
-        <v>13.3</v>
       </c>
       <c r="H4" s="5">
         <v>9.3000000000000007</v>
@@ -1427,8 +1526,8 @@
       <c r="I4" s="5">
         <v>11.4</v>
       </c>
-      <c r="J4" s="5">
-        <v>11.7</v>
+      <c r="J4" s="9">
+        <v>117</v>
       </c>
       <c r="K4" s="5">
         <v>11.8</v>
@@ -1439,16 +1538,52 @@
       <c r="M4" s="5">
         <v>11.3</v>
       </c>
-      <c r="N4" s="5">
-        <v>10.8</v>
+      <c r="N4" s="9">
+        <v>108</v>
       </c>
       <c r="O4" s="6">
         <v>10.6</v>
       </c>
+      <c r="P4" s="5">
+        <v>11.2</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>11.3</v>
+      </c>
+      <c r="R4" s="9">
+        <v>108</v>
+      </c>
+      <c r="S4" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="T4" s="5">
+        <v>11.2</v>
+      </c>
+      <c r="U4" s="5">
+        <v>11.3</v>
+      </c>
+      <c r="V4" s="9">
+        <v>108</v>
+      </c>
+      <c r="W4" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="X4" s="5">
+        <v>11.2</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>11.3</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>108</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>10.6</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1490,10 +1625,46 @@
       <c r="O5" s="6">
         <v>27.7</v>
       </c>
+      <c r="P5" s="5">
+        <v>26.5</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>29.4</v>
+      </c>
+      <c r="R5" s="5">
+        <v>25.9</v>
+      </c>
+      <c r="S5" s="6">
+        <v>27.7</v>
+      </c>
+      <c r="T5" s="5">
+        <v>26.5</v>
+      </c>
+      <c r="U5" s="5">
+        <v>29.4</v>
+      </c>
+      <c r="V5" s="5">
+        <v>25.9</v>
+      </c>
+      <c r="W5" s="6">
+        <v>27.7</v>
+      </c>
+      <c r="X5" s="5">
+        <v>26.5</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>29.4</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>25.9</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>27.7</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="18"/>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1533,12 +1704,48 @@
       <c r="O6" s="8">
         <v>8</v>
       </c>
+      <c r="P6" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="R6" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="S6" s="8">
+        <v>8</v>
+      </c>
+      <c r="T6" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="U6" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="V6" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="W6" s="8">
+        <v>8</v>
+      </c>
+      <c r="X6" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1580,10 +1787,46 @@
       <c r="O7" s="4">
         <v>3</v>
       </c>
+      <c r="P7" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="R7" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="S7" s="4">
+        <v>3</v>
+      </c>
+      <c r="T7" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="U7" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="V7" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="W7" s="4">
+        <v>3</v>
+      </c>
+      <c r="X7" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="18"/>
+    <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1623,10 +1866,46 @@
       <c r="O8" s="6">
         <v>11.5</v>
       </c>
+      <c r="P8" s="5">
+        <v>10.8</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="R8" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="S8" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="T8" s="5">
+        <v>10.8</v>
+      </c>
+      <c r="U8" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="V8" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="W8" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="X8" s="5">
+        <v>10.8</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>11.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="17" t="s">
+    <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1668,10 +1947,46 @@
       <c r="O9" s="6">
         <v>27.5</v>
       </c>
+      <c r="P9" s="5">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>30.6</v>
+      </c>
+      <c r="R9" s="5">
+        <v>27.7</v>
+      </c>
+      <c r="S9" s="6">
+        <v>27.5</v>
+      </c>
+      <c r="T9" s="5">
+        <v>25</v>
+      </c>
+      <c r="U9" s="5">
+        <v>30.6</v>
+      </c>
+      <c r="V9" s="5">
+        <v>27.7</v>
+      </c>
+      <c r="W9" s="6">
+        <v>27.5</v>
+      </c>
+      <c r="X9" s="5">
+        <v>25</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>30.6</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>27.7</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>27.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="18"/>
+    <row r="10" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1711,12 +2026,48 @@
       <c r="O10" s="6">
         <v>12.8</v>
       </c>
+      <c r="P10" s="5">
+        <v>12.8</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>11.9</v>
+      </c>
+      <c r="R10" s="5">
+        <v>11.8</v>
+      </c>
+      <c r="S10" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="T10" s="5">
+        <v>12.8</v>
+      </c>
+      <c r="U10" s="5">
+        <v>11.9</v>
+      </c>
+      <c r="V10" s="5">
+        <v>11.8</v>
+      </c>
+      <c r="W10" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="X10" s="5">
+        <v>12.8</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>11.9</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>11.8</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>12.8</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1758,10 +2109,46 @@
       <c r="O11" s="6">
         <v>3.6</v>
       </c>
+      <c r="P11" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="R11" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="S11" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="T11" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="U11" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="V11" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="W11" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="X11" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>3.6</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="18"/>
+    <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1801,10 +2188,46 @@
       <c r="O12" s="6">
         <v>13.1</v>
       </c>
+      <c r="P12" s="5">
+        <v>12.2</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>12.4</v>
+      </c>
+      <c r="R12" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="S12" s="6">
+        <v>13.1</v>
+      </c>
+      <c r="T12" s="5">
+        <v>12.2</v>
+      </c>
+      <c r="U12" s="5">
+        <v>12.4</v>
+      </c>
+      <c r="V12" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="W12" s="6">
+        <v>13.1</v>
+      </c>
+      <c r="X12" s="5">
+        <v>12.2</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>12.4</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>13.1</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="17" t="s">
+    <row r="13" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1846,10 +2269,46 @@
       <c r="O13" s="6">
         <v>30</v>
       </c>
+      <c r="P13" s="5">
+        <v>28.2</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>29.2</v>
+      </c>
+      <c r="R13" s="5">
+        <v>26.9</v>
+      </c>
+      <c r="S13" s="6">
+        <v>30</v>
+      </c>
+      <c r="T13" s="5">
+        <v>28.2</v>
+      </c>
+      <c r="U13" s="5">
+        <v>29.2</v>
+      </c>
+      <c r="V13" s="5">
+        <v>26.9</v>
+      </c>
+      <c r="W13" s="6">
+        <v>30</v>
+      </c>
+      <c r="X13" s="5">
+        <v>28.2</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>29.2</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>26.9</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>30</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="18"/>
+    <row r="14" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1889,12 +2348,48 @@
       <c r="O14" s="6">
         <v>11.9</v>
       </c>
+      <c r="P14" s="5">
+        <v>11.1</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>10.9</v>
+      </c>
+      <c r="R14" s="5">
+        <v>10.9</v>
+      </c>
+      <c r="S14" s="6">
+        <v>11.9</v>
+      </c>
+      <c r="T14" s="5">
+        <v>11.1</v>
+      </c>
+      <c r="U14" s="5">
+        <v>10.9</v>
+      </c>
+      <c r="V14" s="5">
+        <v>10.9</v>
+      </c>
+      <c r="W14" s="6">
+        <v>11.9</v>
+      </c>
+      <c r="X14" s="5">
+        <v>11.1</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>10.9</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>10.9</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>11.9</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1936,10 +2431,46 @@
       <c r="O15" s="6">
         <v>5.5</v>
       </c>
+      <c r="P15" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="R15" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="S15" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="T15" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="U15" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="V15" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="W15" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="X15" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="AA15" s="6">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="18"/>
+    <row r="16" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1979,10 +2510,46 @@
       <c r="O16" s="6">
         <v>13.5</v>
       </c>
+      <c r="P16" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>12.3</v>
+      </c>
+      <c r="R16" s="5">
+        <v>11.9</v>
+      </c>
+      <c r="S16" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="T16" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="U16" s="5">
+        <v>12.3</v>
+      </c>
+      <c r="V16" s="5">
+        <v>11.9</v>
+      </c>
+      <c r="W16" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="X16" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>12.3</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>11.9</v>
+      </c>
+      <c r="AA16" s="6">
+        <v>13.5</v>
+      </c>
     </row>
-    <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="17" t="s">
+    <row r="17" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2024,10 +2591,46 @@
       <c r="O17" s="6">
         <v>33.299999999999997</v>
       </c>
+      <c r="P17" s="5">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>28.8</v>
+      </c>
+      <c r="R17" s="5">
+        <v>29.4</v>
+      </c>
+      <c r="S17" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="T17" s="5">
+        <v>23</v>
+      </c>
+      <c r="U17" s="5">
+        <v>28.8</v>
+      </c>
+      <c r="V17" s="5">
+        <v>29.4</v>
+      </c>
+      <c r="W17" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="X17" s="5">
+        <v>23</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>28.8</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>29.4</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>33.299999999999997</v>
+      </c>
     </row>
-    <row r="18" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="18"/>
+    <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
@@ -2067,11 +2670,45 @@
       <c r="O18" s="6">
         <v>8.5</v>
       </c>
+      <c r="P18" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>11.8</v>
+      </c>
+      <c r="R18" s="5">
+        <v>11</v>
+      </c>
+      <c r="S18" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="T18" s="5">
+        <v>12</v>
+      </c>
+      <c r="U18" s="5">
+        <v>11.8</v>
+      </c>
+      <c r="V18" s="5">
+        <v>11</v>
+      </c>
+      <c r="W18" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="X18" s="5">
+        <v>12</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>11.8</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>11</v>
+      </c>
+      <c r="AA18" s="6">
+        <v>8.5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="L1:O1"/>
+  <mergeCells count="19">
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="D1:G1"/>
@@ -2086,6 +2723,11 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="L1:O1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/asset/Hierachical Table2.xlsx
+++ b/asset/Hierachical Table2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\Tabular QA\工作内容\Table Transformation\Table-Transformation-demo\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDB2FEC-C303-46D1-825D-279F6159280F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05693755-3C6E-4373-B8ED-4E4B4A9522AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -679,26 +679,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FF8C8C8C"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF8C8C8C"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -869,7 +849,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -891,31 +871,19 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="38" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -924,10 +892,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1288,7 +1262,7 @@
   <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1302,50 +1276,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="10">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="9">
         <v>2018</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9">
         <v>2019</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9">
         <v>2020</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9">
         <v>2021</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9">
         <v>2022</v>
       </c>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10">
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9">
         <v>2023</v>
       </c>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1420,10 +1394,10 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1462,7 +1436,7 @@
       <c r="N3" s="3">
         <v>3.8</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>4.8</v>
       </c>
       <c r="P3" s="3">
@@ -1474,7 +1448,7 @@
       <c r="R3" s="3">
         <v>3.8</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="3">
         <v>4.8</v>
       </c>
       <c r="T3" s="3">
@@ -1486,7 +1460,7 @@
       <c r="V3" s="3">
         <v>3.8</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W3" s="3">
         <v>4.8</v>
       </c>
       <c r="X3" s="3">
@@ -1503,8 +1477,8 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1514,7 +1488,7 @@
       <c r="E4" s="5">
         <v>11.2</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>11.3</v>
       </c>
       <c r="G4" s="5">
@@ -1526,7 +1500,7 @@
       <c r="I4" s="5">
         <v>11.4</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <v>117</v>
       </c>
       <c r="K4" s="5">
@@ -1538,10 +1512,10 @@
       <c r="M4" s="5">
         <v>11.3</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="7">
         <v>108</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="3">
         <v>10.6</v>
       </c>
       <c r="P4" s="5">
@@ -1550,10 +1524,10 @@
       <c r="Q4" s="5">
         <v>11.3</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="7">
         <v>108</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="3">
         <v>10.6</v>
       </c>
       <c r="T4" s="5">
@@ -1562,10 +1536,10 @@
       <c r="U4" s="5">
         <v>11.3</v>
       </c>
-      <c r="V4" s="9">
+      <c r="V4" s="7">
         <v>108</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="3">
         <v>10.6</v>
       </c>
       <c r="X4" s="5">
@@ -1574,7 +1548,7 @@
       <c r="Y4" s="5">
         <v>11.3</v>
       </c>
-      <c r="Z4" s="9">
+      <c r="Z4" s="7">
         <v>108</v>
       </c>
       <c r="AA4" s="6">
@@ -1582,8 +1556,8 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1622,7 +1596,7 @@
       <c r="N5" s="5">
         <v>25.9</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="3">
         <v>27.7</v>
       </c>
       <c r="P5" s="5">
@@ -1634,7 +1608,7 @@
       <c r="R5" s="5">
         <v>25.9</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="3">
         <v>27.7</v>
       </c>
       <c r="T5" s="5">
@@ -1646,7 +1620,7 @@
       <c r="V5" s="5">
         <v>25.9</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="3">
         <v>27.7</v>
       </c>
       <c r="X5" s="5">
@@ -1662,90 +1636,90 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12"/>
+    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <v>7.2</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <v>9.1</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="5">
         <v>8.6</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="5">
         <v>10.8</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="5">
         <v>11.3</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="5">
         <v>9.6999999999999993</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="3">
         <v>8</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="5">
         <v>10.8</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="5">
         <v>11.3</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="5">
         <v>9.6999999999999993</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="3">
         <v>8</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="5">
         <v>10.8</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="5">
         <v>11.3</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="5">
         <v>9.6999999999999993</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="3">
         <v>8</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="5">
         <v>10.8</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="Y6" s="5">
         <v>11.3</v>
       </c>
-      <c r="Z6" s="7">
+      <c r="Z6" s="5">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AA6" s="8">
+      <c r="AA6" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1784,7 +1758,7 @@
       <c r="N7" s="3">
         <v>3.3</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>3</v>
       </c>
       <c r="P7" s="3">
@@ -1796,7 +1770,7 @@
       <c r="R7" s="3">
         <v>3.3</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="3">
         <v>3</v>
       </c>
       <c r="T7" s="3">
@@ -1808,7 +1782,7 @@
       <c r="V7" s="3">
         <v>3.3</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7" s="3">
         <v>3</v>
       </c>
       <c r="X7" s="3">
@@ -1825,8 +1799,8 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1863,7 +1837,7 @@
       <c r="N8" s="5">
         <v>11.5</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="3">
         <v>11.5</v>
       </c>
       <c r="P8" s="5">
@@ -1875,7 +1849,7 @@
       <c r="R8" s="5">
         <v>11.5</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="3">
         <v>11.5</v>
       </c>
       <c r="T8" s="5">
@@ -1887,7 +1861,7 @@
       <c r="V8" s="5">
         <v>11.5</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="3">
         <v>11.5</v>
       </c>
       <c r="X8" s="5">
@@ -1904,8 +1878,8 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1944,7 +1918,7 @@
       <c r="N9" s="5">
         <v>27.7</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="3">
         <v>27.5</v>
       </c>
       <c r="P9" s="5">
@@ -1956,7 +1930,7 @@
       <c r="R9" s="5">
         <v>27.7</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="3">
         <v>27.5</v>
       </c>
       <c r="T9" s="5">
@@ -1968,7 +1942,7 @@
       <c r="V9" s="5">
         <v>27.7</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="3">
         <v>27.5</v>
       </c>
       <c r="X9" s="5">
@@ -1985,8 +1959,8 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
@@ -2023,7 +1997,7 @@
       <c r="N10" s="5">
         <v>11.8</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="3">
         <v>12.8</v>
       </c>
       <c r="P10" s="5">
@@ -2035,7 +2009,7 @@
       <c r="R10" s="5">
         <v>11.8</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="3">
         <v>12.8</v>
       </c>
       <c r="T10" s="5">
@@ -2047,7 +2021,7 @@
       <c r="V10" s="5">
         <v>11.8</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="3">
         <v>12.8</v>
       </c>
       <c r="X10" s="5">
@@ -2064,10 +2038,10 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2106,7 +2080,7 @@
       <c r="N11" s="5">
         <v>3.5</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="3">
         <v>3.6</v>
       </c>
       <c r="P11" s="5">
@@ -2118,7 +2092,7 @@
       <c r="R11" s="5">
         <v>3.5</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="3">
         <v>3.6</v>
       </c>
       <c r="T11" s="5">
@@ -2130,7 +2104,7 @@
       <c r="V11" s="5">
         <v>3.5</v>
       </c>
-      <c r="W11" s="6">
+      <c r="W11" s="3">
         <v>3.6</v>
       </c>
       <c r="X11" s="5">
@@ -2147,8 +2121,8 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -2185,7 +2159,7 @@
       <c r="N12" s="5">
         <v>11.5</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="3">
         <v>13.1</v>
       </c>
       <c r="P12" s="5">
@@ -2197,7 +2171,7 @@
       <c r="R12" s="5">
         <v>11.5</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="3">
         <v>13.1</v>
       </c>
       <c r="T12" s="5">
@@ -2209,7 +2183,7 @@
       <c r="V12" s="5">
         <v>11.5</v>
       </c>
-      <c r="W12" s="6">
+      <c r="W12" s="3">
         <v>13.1</v>
       </c>
       <c r="X12" s="5">
@@ -2226,8 +2200,8 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2266,7 +2240,7 @@
       <c r="N13" s="5">
         <v>26.9</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="3">
         <v>30</v>
       </c>
       <c r="P13" s="5">
@@ -2278,7 +2252,7 @@
       <c r="R13" s="5">
         <v>26.9</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="3">
         <v>30</v>
       </c>
       <c r="T13" s="5">
@@ -2290,7 +2264,7 @@
       <c r="V13" s="5">
         <v>26.9</v>
       </c>
-      <c r="W13" s="6">
+      <c r="W13" s="3">
         <v>30</v>
       </c>
       <c r="X13" s="5">
@@ -2307,8 +2281,8 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
@@ -2345,7 +2319,7 @@
       <c r="N14" s="5">
         <v>10.9</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="3">
         <v>11.9</v>
       </c>
       <c r="P14" s="5">
@@ -2357,7 +2331,7 @@
       <c r="R14" s="5">
         <v>10.9</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="3">
         <v>11.9</v>
       </c>
       <c r="T14" s="5">
@@ -2369,7 +2343,7 @@
       <c r="V14" s="5">
         <v>10.9</v>
       </c>
-      <c r="W14" s="6">
+      <c r="W14" s="3">
         <v>11.9</v>
       </c>
       <c r="X14" s="5">
@@ -2386,10 +2360,10 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2428,7 +2402,7 @@
       <c r="N15" s="5">
         <v>3.8</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="3">
         <v>5.5</v>
       </c>
       <c r="P15" s="5">
@@ -2440,7 +2414,7 @@
       <c r="R15" s="5">
         <v>3.8</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="3">
         <v>5.5</v>
       </c>
       <c r="T15" s="5">
@@ -2452,7 +2426,7 @@
       <c r="V15" s="5">
         <v>3.8</v>
       </c>
-      <c r="W15" s="6">
+      <c r="W15" s="3">
         <v>5.5</v>
       </c>
       <c r="X15" s="5">
@@ -2469,8 +2443,8 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
@@ -2507,7 +2481,7 @@
       <c r="N16" s="5">
         <v>11.9</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="3">
         <v>13.5</v>
       </c>
       <c r="P16" s="5">
@@ -2519,7 +2493,7 @@
       <c r="R16" s="5">
         <v>11.9</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="3">
         <v>13.5</v>
       </c>
       <c r="T16" s="5">
@@ -2531,7 +2505,7 @@
       <c r="V16" s="5">
         <v>11.9</v>
       </c>
-      <c r="W16" s="6">
+      <c r="W16" s="3">
         <v>13.5</v>
       </c>
       <c r="X16" s="5">
@@ -2548,8 +2522,8 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2588,7 +2562,7 @@
       <c r="N17" s="5">
         <v>29.4</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="3">
         <v>33.299999999999997</v>
       </c>
       <c r="P17" s="5">
@@ -2600,7 +2574,7 @@
       <c r="R17" s="5">
         <v>29.4</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17" s="3">
         <v>33.299999999999997</v>
       </c>
       <c r="T17" s="5">
@@ -2612,7 +2586,7 @@
       <c r="V17" s="5">
         <v>29.4</v>
       </c>
-      <c r="W17" s="6">
+      <c r="W17" s="3">
         <v>33.299999999999997</v>
       </c>
       <c r="X17" s="5">
@@ -2629,8 +2603,8 @@
       </c>
     </row>
     <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
@@ -2667,7 +2641,7 @@
       <c r="N18" s="5">
         <v>11</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="3">
         <v>8.5</v>
       </c>
       <c r="P18" s="5">
@@ -2679,7 +2653,7 @@
       <c r="R18" s="5">
         <v>11</v>
       </c>
-      <c r="S18" s="6">
+      <c r="S18" s="3">
         <v>8.5</v>
       </c>
       <c r="T18" s="5">
@@ -2691,7 +2665,7 @@
       <c r="V18" s="5">
         <v>11</v>
       </c>
-      <c r="W18" s="6">
+      <c r="W18" s="3">
         <v>8.5</v>
       </c>
       <c r="X18" s="5">
@@ -2709,6 +2683,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="L1:O1"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="D1:G1"/>
@@ -2723,11 +2702,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="L1:O1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
